--- a/_includes/conicbudget.xlsx
+++ b/_includes/conicbudget.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="391">
   <si>
     <t xml:space="preserve">ITEM</t>
   </si>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">support</t>
+    <t xml:space="preserve">condition</t>
   </si>
   <si>
     <t xml:space="preserve">information</t>
   </si>
   <si>
-    <t xml:space="preserve">G Swanson</t>
+    <t xml:space="preserve">George Swanson</t>
   </si>
   <si>
     <t xml:space="preserve">consultation</t>
@@ -91,19 +91,19 @@
     <t xml:space="preserve">1 hour</t>
   </si>
   <si>
-    <t xml:space="preserve">baubiologie</t>
+    <t xml:space="preserve">Breathing Walls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Biology</t>
   </si>
   <si>
     <t xml:space="preserve">E-book</t>
   </si>
   <si>
-    <t xml:space="preserve">Breathing Walls</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 file</t>
   </si>
   <si>
-    <t xml:space="preserve">C Henderson</t>
+    <t xml:space="preserve">Chuck Henderson</t>
   </si>
   <si>
     <t xml:space="preserve">license</t>
@@ -118,7 +118,10 @@
     <t xml:space="preserve">labor</t>
   </si>
   <si>
-    <t xml:space="preserve">A Durham</t>
+    <t xml:space="preserve">Andrew Durham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designer, builder</t>
   </si>
   <si>
     <t xml:space="preserve">Room &amp; board</t>
@@ -127,933 +130,933 @@
     <t xml:space="preserve">1 day</t>
   </si>
   <si>
-    <t xml:space="preserve">retreat</t>
+    <t xml:space="preserve">tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skylight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior conic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lexan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">920x920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skylight tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1445 x 500h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57" x 20" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">460 dia, MgO/paper/lexan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envelope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roofing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peak vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrugated plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(92&amp;52) * 4 - 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silicate paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 gal/300^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silicate primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board, center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0145# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x40: $0.024565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">washer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0025# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTIONAL eave for outdoor use, add $240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1432 x 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456 dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air barrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.75m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roll 300^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellulose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64m^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.55^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.625^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellulose, straw, wood shavings, wood or cloth fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaster form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geotextile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.51m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.17^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-80 thick, 0.27-1.08m^3, $5-19 sand, clay, straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaster buster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceiling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25*4+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @1220 x 2440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @4 x 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19*13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x25x40x40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62*80=4960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8"x1"x16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at roof only. Anchors at bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Paper or board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78m^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204.18^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellulose, straw, wood shavings, wood/cloth fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.89m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235.59^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 x 10835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-80 thick, 0.5-2m^3, $9-35 sand, clay, straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 1220 x 1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 4 x 6-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 + 8 freight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17*11-4 (for narrow door panel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle holes + opposite clips 12*11*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106*80=8480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8"x1"x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceiling &amp; floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17*11-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compression ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 * 61 x 194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">handles, latch, bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lever type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 x 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutter hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulated glass unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/16 glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 x 81 x 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 x 32 x 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*610 x 1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*30 x 194+61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">double door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slot hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO total:  +6, 19mm &amp; 7, 3mm ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO/wood?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full-length in wall, facing south </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 * 30x162/122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 x 81 x 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 x 32 x 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-5 glass, 20 unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 gal/300^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009804# @$5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2" x 4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 @8', 6 @10'. Maybe 2x6 / 2x2 with MgO vertical beam. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003448# @$5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63m^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.56^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellulose, straw, wood shavings, wood, cloth fiber; floor bottom layer: water tolerant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110x13823 1.52m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.37ft^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydronic tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14306 * 5 + 50000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 coil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9306+5000 connection/manifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0051# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00465# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0015# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen, bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.78^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x100 $38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen, animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4” mesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 50'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x50 $100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 * 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 * 21 * 100 * 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use scraps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibration absorber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorbothane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540 x 630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21*2*90*90 Alibaba, green glue substitute caulking, metal springs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00346# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21*4*2^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x150x150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x300x300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripod anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebar/cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 * 400 = 2400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebar, $14/20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 * 3 * 1200 =21600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weld collars or crossbars near tops to fix wire to. Sharpen bottom ends. Harden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curtain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galvanized steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220 x 1320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 x 100, 15 wall, 1 fold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plumbing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 4, or 5 gal/10 or 20L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screws or magnets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mattress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bike tire tubes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter, entry, bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basically, a shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top, sides, shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*400 x 1200, 2*400 x 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lights, battery, USB, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dish tub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1750x1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 x 30 x 100: 2*100x30, 100x60, 5*60x30 700x30/175x120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x25*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*20" x 10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From scraps. Heat Recovery _Aerator_ (Commonly known as HRVentilator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiWiHex core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire, controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vent high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vent low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC inverter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;200W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solar</t>
   </si>
   <si>
     <t xml:space="preserve">food</t>
   </si>
   <si>
-    <t xml:space="preserve">opening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skylight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior conic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lexan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">920x920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skylight tube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1445 x 500h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57" x 20" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">460 dia, MgO/paper/lexan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">envelope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roofing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peak vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrugated plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(92&amp;52) * 4 - 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silicate paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 gal/300^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silicate primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">board, center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0145# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x40: $0.024565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">washer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0025# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTIONAL eave for outdoor use, add $240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1432 x 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456 dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X Paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.75m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roll 300^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellulose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64m^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.55^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.625^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellulose, straw, wood shavings, wood or cloth fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plaster form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geotextile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.51m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.17^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-80 thick, 0.27-1.08m^3, $5-19 sand, clay, straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plaster buster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceiling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25*4+3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">385^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @1220 x 2440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @4 x 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19*13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x25x40x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62*80=4960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8"x1"x16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at roof only. Anchors at bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X Paper or board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78m^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204.18^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellulose, straw, wood shavings, wood/cloth fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.89m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235.59^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 x 10835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-80 thick, 0.5-2m^3, $9-35 sand, clay, straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 1220 x 1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 4 x 6-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 + 8 freight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17*11-4 (for narrow door panel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle holes + opposite clips 12*11*2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106*80=8480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8"x1"x28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceiling &amp; floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17*11-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compression ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 * 61 x 194</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">handles, latch, bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lever type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hinges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 x 40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shutter hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulated glass unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/16 glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 x 81 x 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 x 32 x 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*610 x 1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*30 x 194+61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slot hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO total:  +6, 19mm &amp; 7, 3mm ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO/wood?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full-length in wall, facing south </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 * 30x162/122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 x 81 x 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 x 32 x 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-5 glass, 20 unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 gal/300^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009804# @$5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2" x 4"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 @8', 6 @10'. Maybe 2x6 / 2x2 with MgO vertical beam. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tongue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003448# @$5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63m^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.56^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellulose, straw, wood shavings, wood, cloth fiber; floor bottom layer: water tolerant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110x13823 1.52m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.37ft^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydronic tubing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14306 * 5 + 50000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 coil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9306+5000 connection/manifold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheathing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0051# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00465# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0015# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen, bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.78^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x100 $38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen, animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4” mesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 50'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x50 $100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2x4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 * 88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 * 21 * 100 * 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use scraps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibration absorber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorbothane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540 x 630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21*2*90*90 Alibaba, green glue substitute caulking, metal springs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round screw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00346# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21*4*2^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x150x150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x300x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subterranean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tripod anchor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebar/cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 * 400 = 2400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebar, $14/20'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 * 3 * 1200 =21600 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">weld collars or crossbars near tops to fix wire to. Sharpen bottom ends. Harden?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curtain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galvanized steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220 x 1320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 x 100, 15 wall, 1 fold,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plumbing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toilet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, 4, or 5 gal/10 or 20L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screws or magnets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mattress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bike tire tubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter, entry, bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basically, a shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top, sides, shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4*400 x 1200, 2*400 x 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lights, battery, USB, etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dish tub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1750x1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 x 30 x 100: 2*100x30, 100x60, 5*60x30 700x30/175x120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aeration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x25*2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*20" x 10"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From scraps. Heat Recovery _Aerator_ (Commonly known as HRVentilator)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FiWiHex core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire, controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vent high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vent low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extension cable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall tube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC inverter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;200W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar</t>
-  </si>
-  <si>
     <t xml:space="preserve">food cooler</t>
   </si>
   <si>
@@ -1174,13 +1177,13 @@
     <t xml:space="preserve">TOTALS</t>
   </si>
   <si>
-    <t xml:space="preserve">ENVELOPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envelope</t>
+    <t xml:space="preserve">SHELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shell</t>
   </si>
   <si>
     <t xml:space="preserve">Utility, Furniture</t>
@@ -1607,16 +1610,16 @@
   <dimension ref="A1:Q165"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D140" activeCellId="0" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.1"/>
@@ -1626,8 +1629,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.76"/>
@@ -1821,10 +1824,10 @@
         <v>32</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>20</v>
@@ -1836,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>10</v>
@@ -1851,16 +1854,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>20</v>
@@ -1878,17 +1881,17 @@
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M6" s="2" t="n">
         <f aca="false">IF(K6*L6&gt;0,K6*L6,"")</f>
-        <v>880</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,13 +6844,13 @@
         <v>321</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>36</v>
+        <v>344</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M130" s="2" t="str">
         <f aca="false">IF(K130*L130&gt;0,K130*L130,"")</f>
@@ -6857,7 +6860,7 @@
         <v>60</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6868,10 +6871,10 @@
         <v>321</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>36</v>
+        <v>344</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F131" s="0" t="s">
         <v>319</v>
@@ -6884,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,25 +6898,25 @@
         <v>321</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H132" s="0" t="n">
         <v>3500</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J132" s="0" t="n">
         <v>1</v>
@@ -6937,13 +6940,13 @@
         <v>321</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M133" s="2" t="str">
         <f aca="false">IF(K133*L133&gt;0,K133*L133,"")</f>
@@ -6964,13 +6967,13 @@
         <v>321</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M134" s="2" t="str">
         <f aca="false">IF(K134*L134&gt;0,K134*L134,"")</f>
@@ -6991,16 +6994,16 @@
         <v>321</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F135" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>20</v>
@@ -7033,10 +7036,10 @@
         <v>321</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M136" s="2" t="str">
         <f aca="false">IF(K136*L136&gt;0,K136*L136,"")</f>
@@ -7057,16 +7060,16 @@
         <v>321</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M137" s="2" t="str">
         <f aca="false">IF(K137*L137&gt;0,K137*L137,"")</f>
@@ -7076,7 +7079,7 @@
         <v>50</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7087,19 +7090,19 @@
         <v>321</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>132</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>20</v>
@@ -7121,7 +7124,7 @@
         <v>40</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,13 +7135,13 @@
         <v>321</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M139" s="2" t="str">
         <f aca="false">IF(K139*L139&gt;0,K139*L139,"")</f>
@@ -7159,13 +7162,13 @@
         <v>321</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M140" s="2" t="str">
         <f aca="false">IF(K140*L140&gt;0,K140*L140,"")</f>
@@ -7186,13 +7189,13 @@
         <v>321</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M141" s="2" t="str">
         <f aca="false">IF(K141*L141&gt;0,K141*L141,"")</f>
@@ -7213,13 +7216,13 @@
         <v>321</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M142" s="2" t="str">
         <f aca="false">IF(K142*L142&gt;0,K142*L142,"")</f>
@@ -7240,13 +7243,13 @@
         <v>321</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>1</v>
@@ -7267,54 +7270,54 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B144" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="H144" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="I144" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="J144" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="L144" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="M144" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C144" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="D144" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="F144" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="G144" s="0" t="s">
+      <c r="N144" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="O144" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="H144" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="I144" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="J144" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="K144" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="L144" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="N144" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -7328,20 +7331,20 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F149" s="1"/>
       <c r="H149" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I149" s="4"/>
       <c r="M149" s="0"/>
@@ -7351,11 +7354,11 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C150" s="4" t="n">
         <f aca="false">SUMIFS(M:M,A:A,"&lt;10")</f>
-        <v>2210</v>
+        <v>1430</v>
       </c>
       <c r="D150" s="4" t="n">
         <f aca="false">SUMIFS(N:N,A:A,"&lt;10")</f>
@@ -7363,7 +7366,7 @@
       </c>
       <c r="E150" s="4" t="n">
         <f aca="false">SUM(C150,D150)</f>
-        <v>2210</v>
+        <v>1430</v>
       </c>
       <c r="F150" s="1"/>
       <c r="H150" s="0" t="s">
@@ -7380,7 +7383,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C151" s="4" t="n">
         <f aca="false">SUMIFS(M:M,A:A,"&gt;9",A:A,"&lt;200")</f>
@@ -7409,7 +7412,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C152" s="4" t="n">
         <f aca="false">SUMIFS(M:M,A:A,"&gt;199",A:A,"&lt;400")</f>
@@ -7425,7 +7428,7 @@
       </c>
       <c r="F152" s="1"/>
       <c r="H152" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I152" s="4" t="n">
         <f aca="false">SUMIFS(M:M,F:F,"zinc")</f>
@@ -7438,11 +7441,11 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C153" s="4" t="n">
         <f aca="false">SUM(C150:C152)</f>
-        <v>5397.80759</v>
+        <v>4617.80759</v>
       </c>
       <c r="D153" s="4" t="n">
         <f aca="false">SUM(D150:D152)</f>
@@ -7450,7 +7453,7 @@
       </c>
       <c r="E153" s="5" t="n">
         <f aca="false">SUM(E150:E152)</f>
-        <v>7046.80759</v>
+        <v>6266.80759</v>
       </c>
       <c r="F153" s="1"/>
       <c r="H153" s="0" t="s">
@@ -7467,7 +7470,7 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I154" s="4" t="n">
         <f aca="false">SUMIFS(M:M,F:F,"3/16 glass")</f>

--- a/_includes/conicbudget.xlsx
+++ b/_includes/conicbudget.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="420">
   <si>
     <t xml:space="preserve">ITEM</t>
   </si>
@@ -67,1171 +67,1174 @@
     <t xml:space="preserve">NOTES</t>
   </si>
   <si>
+    <t xml:space="preserve">shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuck Henderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skylight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior conic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polycarbonate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">920x920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? see notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460 dia, 560 h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1445 x 560h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57" x 20" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO/paper/lexan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round glass unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460 dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrugated plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(92&amp;52) * 4 - 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roofing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silicate paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 gal/300^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silicate primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board, center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0145# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x40: $0.024565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">washer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5x30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0025# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air seal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1432 x 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456 dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">air barrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kraft paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.75m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roll 300^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Paper/Longview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellulose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64m^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.55^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.625^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or straw, wood shavings, wood or cloth fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaster form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geotextile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pro grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.51m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.17^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-80 thick, 0.27-1.08m^3, $5-19 sand, clay, straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaster buster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP, 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceiling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25*4+3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @1220 x 2440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @4 x 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19*13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3x25x40x40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62*80=4960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8"x1"x16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at roof only. Anchors at bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kraft paper, heavy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X Pape/Board/Longview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78m^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">204.18^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or straw, wood shavings, wood/cloth fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.89m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235.59^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 x 10835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-80 thick, 0.5-2m^3, $9-35 sand, clay, straw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 1220 x 1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 @ 4 x 6-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 + 8 freight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17*11-4 (for narrow door panel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0155# @2.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle holes + opposite clips 12*11*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106*80=8480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/8"x1"x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceiling &amp; floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17*11-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compression ring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outer door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 * 61 x 194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">handles, latch, bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lever type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hinges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 x 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutter hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insulated glass unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/16 glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 x 81 x 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 x 32 x 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*610 x 1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*30 x 194+61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slot hardware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO total:  +6, 19mm &amp; 7, 3mm ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO/wood?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full-length in wall, facing south </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening sides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 * 30x162/122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 x 32 x 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass: 4-5 , unit: 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 gal/300^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r220. Maybe 12 or 15 thick in future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009804# @$5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2" x 4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 @8', 6 @10'. Maybe 2” x 2” with MgO vertical beam or 1” or 2” x 6”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tongue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60x(~115*16, 65*4, 25*4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003448# @$5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63m^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.56^3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">or straw, wood/cloth shavings/fiber; water tolerant bottom layer, 15-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110x13823 1.52m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.37ft^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suspension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132x38x38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5*132=660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5”x2”x2”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use scrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steel or static fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From scrap yard or steel pallet strapping at steel supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0051# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00465# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0015# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @ 1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 @ 4^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">against animals, insects, weeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen, bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.78^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen, animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4” mesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 x 50'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal drainage screen to outside of ext wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80x80x64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salvage from pallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 x 80 *21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use scraps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibration absorber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorbothane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540 x 630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21*2*90*90 Alibaba. Springs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round screw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00346# @2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21*4*2^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x150x150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no concrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x300x300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tripod anchor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebar/cold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 * 400 = 2400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebar, $14/20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12x1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 * 3 * 1200 =21600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">weld crossbar near top for wire. Sharpen ends. Harden?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furnishings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curtain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galv. steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220 x 1320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 x 100, 15 wall, 1 fold,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plumbing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bucket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2, 4, or 5 gal/10 or 20L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screws / magnets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mattress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rubber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bike tire tubes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natural fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter, entry, bed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basically, a shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top, sides, shelves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*400 x 1200, 2*400 x 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lights, battery, USB, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dish tub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1750x1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 x 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 x 30 x 100: 2*100x30, 100x60, 5*60x30 700x30/175x120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50x25*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*20" x 10"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FiWiHex core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRA: Heat Recovery _Aerator_ (Commonly misnamed HRVentilator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fan mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire, controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vent, high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vent, low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall tube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC inverter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~200W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outlets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MgO/ceramic?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaporative, of ceramic or MgO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teapot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for hydronic tubing in floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wall, lid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wood/wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m dia, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bin, duff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warmth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ground cooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~1000W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-grid heater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solar/propane/electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydronic tubing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14306 * 5 + 50000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 coil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9306+5000 connection/manifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at one outlet, away from bed, remote breaker with cord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gravity fed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tubing 6-10mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indoor drain pipes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greywater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drainage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low earth walls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Durham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stipend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20hrs/week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equity: wage minus stipend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">George Swanson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consultation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one-time cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_Breathing Walls_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN  SHELL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUNNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATERIALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COST + EST.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* +20% *</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chuck Henderson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">license+</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">license</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roof</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skylight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior conic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polycarbonate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">920x920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? see notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460 dia, 560 h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1445 x 560h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57" x 20" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO/paper/lexan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round glass unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460 dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corrugated plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(92&amp;52) * 4 - 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roofing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">finish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silicate paint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 gal/300^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silicate primer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">board, center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zinc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0145# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x40: $0.024565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">washer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0025# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air seal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1432 x 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456 dia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">air barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kraft paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.75m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roll 300^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X Paper/Longview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellulose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64m^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.55^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.625^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or straw, wood shavings, wood or cloth fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plaster form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geotextile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.51m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.17^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-80 thick, 0.27-1.08m^3, $5-19 sand, clay, straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plaster buster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceiling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25*4+3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">385^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @1220 x 2440</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @4 x 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19*13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x25x40x40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62*80=4960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8"x1"x16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at roof only. Anchors at bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kraft paper, heavy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X Pape/Board/Longview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78m^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204.18^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or straw, wood shavings, wood/cloth fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.89m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235.59^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 x 10835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-80 thick, 0.5-2m^3, $9-35 sand, clay, straw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 1220 x 1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 @ 4 x 6-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 + 8 freight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17*11-4 (for narrow door panel)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0155# @2.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle holes + opposite clips 12*11*2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106*80=8480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/8"x1"x28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceiling &amp; floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17*11-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compression ring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outer door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 * 61 x 194</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">handles, latch, bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lever type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hinges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 x 40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">shutter hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insulated glass unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/16 glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 x 81 x 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 x 32 x 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*610 x 1960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*30 x 194+61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inner door</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">slot hardware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO total:  +6, 19mm &amp; 7, 3mm ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO/wood?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full-length in wall, facing south </t>
-  </si>
-  <si>
-    <t xml:space="preserve">opening sides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 * 30x162/122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 x 32 x 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass: 4-5 , unit: 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 gal/300^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r220. Maybe 12 or 15 thick in future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009804# @$5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">joist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2" x 4"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 @8', 6 @10'. Maybe 2” x 2” with MgO vertical beam or 1” or 2” x 6”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tongue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60x(~115*16, 65*4, 25*4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003448# @$5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63m^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.56^3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">or straw, wood/cloth shavings/fiber; water tolerant bottom layer, 15-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110x13823 1.52m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.37ft^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suspension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132x38x38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5*132=660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5”x2”x2”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use scrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steel or static fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From scrap yard or steel pallet strapping at steel supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheathing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0051# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00465# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0015# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @ 1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 @ 4^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">against animals, insects, weeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen, bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.78^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screen, animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/4” mesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 x 50'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metal drainage screen to outside of ext wall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pillar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80x80x64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salvage from pallet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 x 80 *21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use scraps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vibration absorber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sorbothane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">540 x 630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21*2*90*90 Alibaba. Springs?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">round screw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4x12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00346# @2.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21*4*2^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x150x150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no concrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x300x300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tripod anchor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebar/cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 * 400 = 2400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebar, $14/20'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12x1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 * 3 * 1200 =21600 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">weld crossbar near top for wire. Sharpen ends. Harden?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">furnishings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curtain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">galv. steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220 x 1320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 x 100, 15 wall, 1 fold,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plumbing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toilet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bucket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, 4, or 5 gal/10 or 20L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">funnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screws / magnets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">furniture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mattress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rubber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bike tire tubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natural fiber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1m^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter, entry, bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basically, a shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">top, sides, shelves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4*400 x 1200, 2*400 x 1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lights, battery, USB, etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dish tub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1750x1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 x 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 x 30 x 100: 2*100x30, 100x60, 5*60x30 700x30/175x120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aeration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50x25*2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2*20" x 10"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FiWiHex core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRA: Heat Recovery _Aerator_ (Commonly misnamed HRVentilator)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fan mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire, controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vent, high</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air vent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vent, low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extension cable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall tube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC inverter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~200W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outlets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MgO/ceramic?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaporative, of ceramic or MgO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teapot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for hydronic tubing in floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hotplate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall, lid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wood/wire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1m dia, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bin, duff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warmth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ground cooling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~1000W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off-grid heater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solar/propane/electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydronic tubing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14306 * 5 + 50000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 coil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9306+5000 connection/manifold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rainwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at one outlet, away from bed, remote breaker with cord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gravity fed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubing 6-10mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indoor drain pipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greywater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drainage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low earth walls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Durham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stipend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food, etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20hrs/week</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equity: wage minus stipend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George Swanson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consultation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one-time cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_Breathing Walls_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAIN  SHELL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIALS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTALS+20%</t>
   </si>
   <si>
     <t xml:space="preserve">MgO board</t>
@@ -1399,7 +1402,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1450,26 +1453,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFFFF200"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1641,15 +1632,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1657,15 +1652,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1730,7 +1721,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1756,7 +1747,7 @@
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1780,12 +1771,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T246"/>
+  <dimension ref="A1:Q246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G147" activeCellId="0" sqref="G147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1797,17 +1788,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="4.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="78.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="40.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,34 +1849,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>1</v>
@@ -1904,31 +1894,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>9</v>
@@ -1944,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,28 +1942,28 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="M4" s="2" t="str">
         <f aca="false">IF(K4*L4&gt;0,K4*L4,"")</f>
@@ -1983,7 +1973,7 @@
         <v>40</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1991,22 +1981,22 @@
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1</v>
@@ -2019,7 +2009,7 @@
         <v>50</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,19 +2017,19 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>40</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>20</v>
@@ -2048,7 +2038,7 @@
         <v>2680</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1" t="n">
         <v>1</v>
@@ -2064,7 +2054,7 @@
         <v>45</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,31 +2062,31 @@
         <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>0.8</v>
@@ -2112,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2120,31 +2110,31 @@
         <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0.8</v>
@@ -2160,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,31 +2158,31 @@
         <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0.5</v>
@@ -2208,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2216,31 +2206,31 @@
         <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>7</v>
@@ -2256,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,31 +2254,31 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>128</v>
@@ -2304,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,31 +2302,31 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>256</v>
@@ -2357,31 +2347,31 @@
         <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>128</v>
@@ -2397,40 +2387,39 @@
         <v>0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="0"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>0.75</v>
@@ -2445,38 +2434,37 @@
       <c r="N14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0.75</v>
@@ -2491,38 +2479,37 @@
       <c r="N15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>7</v>
@@ -2537,38 +2524,37 @@
       <c r="N16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>160</v>
@@ -2583,38 +2569,37 @@
       <c r="N17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>320</v>
@@ -2629,38 +2614,37 @@
       <c r="N18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="P18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>160</v>
@@ -2681,31 +2665,31 @@
         <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>20</v>
@@ -2721,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2729,31 +2713,31 @@
         <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="G21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>0.64</v>
@@ -2769,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,31 +2761,31 @@
         <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="G22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>8.23</v>
@@ -2817,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,31 +2809,31 @@
         <v>43</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="G23" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>0.282925</v>
@@ -2865,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,31 +2857,31 @@
         <v>44</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="G24" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>10</v>
@@ -2913,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,25 +2905,25 @@
         <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="G25" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="H25" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I25" s="1" t="n">
         <v>210</v>
@@ -2961,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,19 +2953,19 @@
         <v>50</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>5</v>
@@ -2990,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>103</v>
@@ -3009,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,31 +3001,31 @@
         <v>51</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>206</v>
@@ -3062,31 +3046,31 @@
         <v>52</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="G28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="H28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>103</v>
@@ -3102,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,31 +3094,31 @@
         <v>53</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>0.5</v>
@@ -3150,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,31 +3142,31 @@
         <v>54</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>5</v>
@@ -3198,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,31 +3190,31 @@
         <v>55</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>0.6</v>
@@ -3246,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,31 +3238,31 @@
         <v>56</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="G32" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>0.6</v>
@@ -3294,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,31 +3286,31 @@
         <v>60</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>35.72</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>1.28</v>
@@ -3342,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,31 +3334,31 @@
         <v>61</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E34" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>35.72</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>1.28</v>
@@ -3390,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,31 +3382,31 @@
         <v>62</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E35" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>12</v>
@@ -3438,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,31 +3430,31 @@
         <v>63</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E36" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="G36" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="H36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>247</v>
@@ -3486,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,31 +3478,31 @@
         <v>64</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>548</v>
@@ -3534,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3542,28 +3526,28 @@
         <v>65</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E38" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="G38" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="H38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J38" s="1" t="n">
         <v>20</v>
@@ -3582,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,31 +3574,31 @@
         <v>66</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>112</v>
-      </c>
       <c r="E39" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>274</v>
@@ -3635,31 +3619,31 @@
         <v>70</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>0.64</v>
@@ -3675,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,31 +3667,31 @@
         <v>71</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="G41" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>13.07</v>
@@ -3723,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3731,31 +3715,31 @@
         <v>72</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="G42" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>0.588975</v>
@@ -3771,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,31 +3763,31 @@
         <v>73</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="F43" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="G43" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>20</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>18</v>
@@ -3819,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,25 +3811,25 @@
         <v>74</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="G44" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>383</v>
@@ -3867,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3875,31 +3859,31 @@
         <v>80</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E45" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="G45" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>23.91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>0.86</v>
@@ -3915,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,31 +3907,31 @@
         <v>81</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>23.91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>0.86</v>
@@ -3963,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,31 +3955,31 @@
         <v>82</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>10</v>
@@ -4011,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4019,31 +4003,31 @@
         <v>83</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="G48" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>183</v>
@@ -4059,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,31 +4051,31 @@
         <v>84</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>366</v>
@@ -4107,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,28 +4099,28 @@
         <v>85</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E50" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="G50" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="H50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="J50" s="1" t="n">
         <v>20</v>
@@ -4155,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,31 +4147,31 @@
         <v>86</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>183</v>
@@ -4203,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,25 +4195,25 @@
         <v>87</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="H52" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="I52" s="1" t="n">
         <v>406</v>
@@ -4256,31 +4240,31 @@
         <v>90</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="F53" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>1</v>
@@ -4296,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,31 +4288,31 @@
         <v>91</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="G54" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>1</v>
@@ -4344,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,31 +4336,31 @@
         <v>92</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>4</v>
@@ -4392,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,22 +4384,22 @@
         <v>93</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I56" s="1" t="n">
         <v>1</v>
@@ -4434,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,31 +4426,31 @@
         <v>94</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="G57" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="H57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>2</v>
@@ -4482,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,31 +4474,31 @@
         <v>95</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>1</v>
@@ -4530,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4538,19 +4522,19 @@
         <v>100</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="F59" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>1</v>
@@ -4571,19 +4555,19 @@
         <v>101</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>1</v>
@@ -4604,31 +4588,31 @@
         <v>103</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>1</v>
@@ -4644,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,22 +4636,22 @@
         <v>110</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="F62" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="G62" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="M62" s="2" t="str">
         <f aca="false">IF(K62*L62&gt;0,K62*L62,"")</f>
@@ -4677,7 +4661,7 @@
         <v>20</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,31 +4669,31 @@
         <v>111</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>1</v>
@@ -4730,31 +4714,31 @@
         <v>112</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E64" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="G64" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="G64" s="0" t="s">
-        <v>162</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>4</v>
@@ -4770,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,31 +4762,31 @@
         <v>120</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="E65" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G65" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="J65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>0.55</v>
@@ -4818,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4826,31 +4810,31 @@
         <v>121</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="E66" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>0.55</v>
@@ -4866,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4874,31 +4858,31 @@
         <v>122</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="E67" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>19</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>6</v>
@@ -4914,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,31 +4906,31 @@
         <v>123</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E68" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="F68" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G68" s="0" t="s">
+      <c r="H68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>104</v>
@@ -4962,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,22 +4954,22 @@
         <v>124</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="G69" s="0" t="s">
         <v>192</v>
-      </c>
-      <c r="G69" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>23120</v>
@@ -5010,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,31 +5002,31 @@
         <v>125</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="J70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>0.5</v>
@@ -5058,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5066,31 +5050,31 @@
         <v>126</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G71" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>104</v>
@@ -5106,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,28 +5098,28 @@
         <v>127</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="G72" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J72" s="1" t="n">
         <v>15.625</v>
@@ -5154,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,31 +5146,31 @@
         <v>128</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E73" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F73" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="J73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>0.055</v>
@@ -5202,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,28 +5194,28 @@
         <v>130</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="F74" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G74" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="F74" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="G74" s="0" t="s">
+      <c r="H74" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="J74" s="1" t="n">
         <v>1</v>
@@ -5250,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,19 +5242,19 @@
         <v>129</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E75" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>214</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>30</v>
@@ -5298,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5306,31 +5290,31 @@
         <v>140</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D76" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G76" s="0" t="s">
+      <c r="H76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>109</v>
@@ -5346,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5354,31 +5338,31 @@
         <v>141</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D77" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>217</v>
-      </c>
       <c r="H77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>218</v>
@@ -5394,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,31 +5386,31 @@
         <v>142</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>109</v>
@@ -5442,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,31 +5434,31 @@
         <v>143</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G79" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="J79" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>6</v>
@@ -5490,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,31 +5482,31 @@
         <v>144</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E80" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F80" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>0.05695</v>
@@ -5537,38 +5521,37 @@
       <c r="N80" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>145</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E81" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" s="0" t="s">
+      <c r="H81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>0.151867</v>
@@ -5584,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5592,22 +5575,22 @@
         <v>150</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D82" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="F82" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>4</v>
@@ -5623,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,25 +5614,25 @@
         <v>151</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E83" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="I83" s="1" t="n">
         <v>1.5</v>
@@ -5668,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5676,31 +5659,31 @@
         <v>152</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E84" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="G84" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="H84" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="I84" s="1" t="n">
         <v>4</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M84" s="2" t="str">
         <f aca="false">IF(K84*L84&gt;0,K84*L84,"")</f>
@@ -5710,7 +5693,7 @@
         <v>100</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,31 +5701,31 @@
         <v>153</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E85" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="F85" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="0" t="s">
+      <c r="H85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>168</v>
@@ -5758,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5766,31 +5749,31 @@
         <v>154</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>336</v>
@@ -5806,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,22 +5797,22 @@
         <v>155</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="F87" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="G87" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>252</v>
-      </c>
       <c r="H87" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>13</v>
@@ -5845,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,22 +5836,22 @@
         <v>156</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="F88" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="F88" s="0" t="s">
-        <v>251</v>
-      </c>
       <c r="G88" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>8</v>
@@ -5884,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,31 +5875,31 @@
         <v>160</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="F89" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="F89" s="0" t="s">
+      <c r="G89" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="H89" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="I89" s="1" t="n">
         <v>8</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>0.4</v>
@@ -5932,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,19 +5923,19 @@
         <v>161</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>3</v>
@@ -5968,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5976,31 +5959,31 @@
         <v>162</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E91" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="G91" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="F91" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="G91" s="0" t="s">
+      <c r="H91" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="I91" s="1" t="n">
         <v>71</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>3.55</v>
@@ -6016,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6024,19 +6007,19 @@
         <v>201</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="D92" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="E92" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="F92" s="0" t="s">
         <v>270</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>271</v>
       </c>
       <c r="M92" s="2" t="str">
         <f aca="false">IF(K92*L92&gt;0,K92*L92,"")</f>
@@ -6046,7 +6029,7 @@
         <v>5</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6054,25 +6037,25 @@
         <v>202</v>
       </c>
       <c r="B93" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="E93" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="G93" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="H93" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J93" s="1" t="n">
         <v>3200</v>
@@ -6091,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6099,16 +6082,16 @@
         <v>203</v>
       </c>
       <c r="B94" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="E94" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M94" s="2" t="str">
         <f aca="false">IF(K94*L94&gt;0,K94*L94,"")</f>
@@ -6118,7 +6101,7 @@
         <v>20</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6126,16 +6109,16 @@
         <v>204</v>
       </c>
       <c r="B95" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C95" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="D95" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>278</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>279</v>
       </c>
       <c r="M95" s="2" t="str">
         <f aca="false">IF(K95*L95&gt;0,K95*L95,"")</f>
@@ -6145,7 +6128,7 @@
         <v>5</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6153,22 +6136,22 @@
         <v>205</v>
       </c>
       <c r="B96" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="D96" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E96" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" s="0" t="s">
         <v>281</v>
-      </c>
-      <c r="F96" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G96" s="0" t="s">
-        <v>282</v>
       </c>
       <c r="M96" s="2" t="str">
         <f aca="false">IF(K96*L96&gt;0,K96*L96,"")</f>
@@ -6178,7 +6161,7 @@
         <v>15</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6186,16 +6169,16 @@
         <v>206</v>
       </c>
       <c r="B97" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="D97" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M97" s="2" t="str">
         <f aca="false">IF(K97*L97&gt;0,K97*L97,"")</f>
@@ -6205,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,16 +6196,16 @@
         <v>207</v>
       </c>
       <c r="B98" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>268</v>
-      </c>
       <c r="D98" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M98" s="2" t="str">
         <f aca="false">IF(K98*L98&gt;0,K98*L98,"")</f>
@@ -6232,7 +6215,7 @@
         <v>10</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,19 +6223,19 @@
         <v>210</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C99" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D99" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="E99" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="F99" s="0" t="s">
         <v>287</v>
-      </c>
-      <c r="F99" s="0" t="s">
-        <v>288</v>
       </c>
       <c r="M99" s="2" t="str">
         <f aca="false">IF(K99*L99&gt;0,K99*L99,"")</f>
@@ -6262,7 +6245,7 @@
         <v>100</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,19 +6253,19 @@
         <v>211</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C100" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D100" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="E100" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M100" s="2" t="str">
         <f aca="false">IF(K100*L100&gt;0,K100*L100,"")</f>
@@ -6292,7 +6275,7 @@
         <v>50</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,31 +6283,31 @@
         <v>213</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C101" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="E101" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F101" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="F101" s="0" t="s">
-        <v>290</v>
-      </c>
       <c r="G101" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>10</v>
@@ -6340,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6348,19 +6331,19 @@
         <v>214</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D102" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>286</v>
-      </c>
       <c r="E102" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M102" s="2" t="str">
         <f aca="false">IF(K102*L102&gt;0,K102*L102,"")</f>
@@ -6370,7 +6353,7 @@
         <v>10</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,19 +6361,19 @@
         <v>220</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M103" s="2" t="str">
         <f aca="false">IF(K103*L103&gt;0,K103*L103,"")</f>
@@ -6400,7 +6383,7 @@
         <v>3</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,19 +6391,19 @@
         <v>221</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M104" s="2" t="str">
         <f aca="false">IF(K104*L104&gt;0,K104*L104,"")</f>
@@ -6430,7 +6413,7 @@
         <v>5</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6438,31 +6421,31 @@
         <v>222</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="0" t="s">
+      <c r="G105" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="G105" s="0" t="s">
-        <v>295</v>
-      </c>
       <c r="H105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>3</v>
@@ -6478,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6486,19 +6469,19 @@
         <v>230</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E106" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="F106" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="M106" s="2" t="str">
         <f aca="false">IF(K106*L106&gt;0,K106*L106,"")</f>
@@ -6508,7 +6491,7 @@
         <v>10</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,19 +6499,19 @@
         <v>230</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M107" s="2" t="str">
         <f aca="false">IF(K107*L107&gt;0,K107*L107,"")</f>
@@ -6538,7 +6521,7 @@
         <v>10</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,28 +6529,28 @@
         <v>232</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E108" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="F108" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G108" s="0" t="s">
-        <v>300</v>
-      </c>
       <c r="I108" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>1</v>
@@ -6583,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,19 +6574,19 @@
         <v>233</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M109" s="2" t="str">
         <f aca="false">IF(K109*L109&gt;0,K109*L109,"")</f>
@@ -6613,7 +6596,7 @@
         <v>5</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,19 +6604,19 @@
         <v>234</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E110" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="F110" s="0" t="s">
         <v>303</v>
-      </c>
-      <c r="F110" s="0" t="s">
-        <v>304</v>
       </c>
       <c r="M110" s="2" t="str">
         <f aca="false">IF(K110*L110&gt;0,K110*L110,"")</f>
@@ -6643,7 +6626,7 @@
         <v>5</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,31 +6634,31 @@
         <v>240</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H111" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="J111" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>0.75</v>
@@ -6691,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6699,19 +6682,19 @@
         <v>241</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M112" s="2" t="str">
         <f aca="false">IF(K112*L112&gt;0,K112*L112,"")</f>
@@ -6721,7 +6704,7 @@
         <v>5</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,31 +6712,31 @@
         <v>250</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>0.5</v>
@@ -6769,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6777,19 +6760,19 @@
         <v>251</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M114" s="2" t="str">
         <f aca="false">IF(K114*L114&gt;0,K114*L114,"")</f>
@@ -6799,7 +6782,7 @@
         <v>5</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,19 +6790,19 @@
         <v>252</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M115" s="2" t="str">
         <f aca="false">IF(K115*L115&gt;0,K115*L115,"")</f>
@@ -6829,7 +6812,7 @@
         <v>10</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6837,31 +6820,31 @@
         <v>300</v>
       </c>
       <c r="B116" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C116" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="E116" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>316</v>
-      </c>
       <c r="F116" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="J116" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>0</v>
@@ -6877,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,16 +6868,16 @@
         <v>301</v>
       </c>
       <c r="B117" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="D117" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="E117" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M117" s="2" t="str">
         <f aca="false">IF(K117*L117&gt;0,K117*L117,"")</f>
@@ -6904,7 +6887,7 @@
         <v>30</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6912,16 +6895,16 @@
         <v>302</v>
       </c>
       <c r="B118" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C118" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="D118" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="E118" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M118" s="2" t="str">
         <f aca="false">IF(K118*L118&gt;0,K118*L118,"")</f>
@@ -6931,7 +6914,7 @@
         <v>200</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6939,16 +6922,16 @@
         <v>303</v>
       </c>
       <c r="B119" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="D119" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="E119" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M119" s="2" t="str">
         <f aca="false">IF(K119*L119&gt;0,K119*L119,"")</f>
@@ -6958,7 +6941,7 @@
         <v>5</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6966,16 +6949,16 @@
         <v>304</v>
       </c>
       <c r="B120" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C120" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="D120" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="E120" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M120" s="2" t="str">
         <f aca="false">IF(K120*L120&gt;0,K120*L120,"")</f>
@@ -6985,7 +6968,7 @@
         <v>40</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6993,16 +6976,16 @@
         <v>305</v>
       </c>
       <c r="B121" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C121" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C121" s="0" t="s">
-        <v>314</v>
-      </c>
       <c r="D121" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="E121" s="0" t="s">
-        <v>325</v>
       </c>
       <c r="M121" s="2" t="str">
         <f aca="false">IF(K121*L121&gt;0,K121*L121,"")</f>
@@ -7012,7 +6995,7 @@
         <v>10</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7020,16 +7003,16 @@
         <v>306</v>
       </c>
       <c r="B122" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="C122" s="0" t="s">
-        <v>314</v>
-      </c>
       <c r="D122" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M122" s="2" t="str">
         <f aca="false">IF(K122*L122&gt;0,K122*L122,"")</f>
@@ -7039,7 +7022,7 @@
         <v>10</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7047,16 +7030,16 @@
         <v>310</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C123" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D123" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="E123" s="0" t="s">
         <v>328</v>
-      </c>
-      <c r="E123" s="0" t="s">
-        <v>329</v>
       </c>
       <c r="M123" s="2" t="str">
         <f aca="false">IF(K123*L123&gt;0,K123*L123,"")</f>
@@ -7066,7 +7049,7 @@
         <v>30</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,16 +7057,16 @@
         <v>311</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C124" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="D124" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D124" s="0" t="s">
-        <v>328</v>
-      </c>
       <c r="E124" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M124" s="2" t="str">
         <f aca="false">IF(K124*L124&gt;0,K124*L124,"")</f>
@@ -7093,7 +7076,7 @@
         <v>5</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,31 +7084,31 @@
         <v>312</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D125" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E125" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="E125" s="0" t="s">
+      <c r="F125" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="F125" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" s="0" t="s">
-        <v>333</v>
-      </c>
       <c r="H125" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>1</v>
@@ -7138,7 +7121,7 @@
         <v>100</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,16 +7129,16 @@
         <v>315</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M126" s="2" t="str">
         <f aca="false">IF(K126*L126&gt;0,K126*L126,"")</f>
@@ -7165,7 +7148,7 @@
         <v>50</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,16 +7156,16 @@
         <v>316</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M127" s="2" t="str">
         <f aca="false">IF(K127*L127&gt;0,K127*L127,"")</f>
@@ -7192,7 +7175,7 @@
         <v>200</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,16 +7183,16 @@
         <v>320</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D128" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="F128" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="F128" s="0" t="s">
-        <v>338</v>
       </c>
       <c r="M128" s="2" t="str">
         <f aca="false">IF(K128*L128&gt;0,K128*L128,"")</f>
@@ -7219,7 +7202,7 @@
         <v>60</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7227,16 +7210,16 @@
         <v>321</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M129" s="2" t="str">
         <f aca="false">IF(K129*L129&gt;0,K129*L129,"")</f>
@@ -7246,7 +7229,7 @@
         <v>20</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,16 +7237,16 @@
         <v>322</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M130" s="2" t="str">
         <f aca="false">IF(K130*L130&gt;0,K130*L130,"")</f>
@@ -7278,28 +7261,28 @@
         <v>330</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C131" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D131" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="E131" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="F131" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="F131" s="0" t="s">
+      <c r="G131" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="G131" s="0" t="s">
-        <v>347</v>
       </c>
       <c r="H131" s="1" t="n">
         <v>3500</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J131" s="1" t="n">
         <v>1</v>
@@ -7312,7 +7295,7 @@
         <v>10</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,16 +7303,16 @@
         <v>331</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M132" s="2" t="str">
         <f aca="false">IF(K132*L132&gt;0,K132*L132,"")</f>
@@ -7339,7 +7322,7 @@
         <v>5</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7347,16 +7330,16 @@
         <v>340</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C133" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D133" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="E133" s="0" t="s">
         <v>351</v>
-      </c>
-      <c r="E133" s="0" t="s">
-        <v>352</v>
       </c>
       <c r="M133" s="2" t="str">
         <f aca="false">IF(K133*L133&gt;0,K133*L133,"")</f>
@@ -7366,7 +7349,7 @@
         <v>20</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7374,28 +7357,28 @@
         <v>341</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D134" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="F134" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="0" t="s">
-        <v>354</v>
-      </c>
       <c r="H134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>1</v>
@@ -7408,7 +7391,7 @@
         <v>40</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7416,13 +7399,13 @@
         <v>342</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M135" s="2" t="str">
         <f aca="false">IF(K135*L135&gt;0,K135*L135,"")</f>
@@ -7432,7 +7415,7 @@
         <v>200</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,31 +7423,31 @@
         <v>343</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D136" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E136" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="E136" s="0" t="s">
+      <c r="F136" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="F136" s="0" t="s">
+      <c r="G136" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="G136" s="0" t="s">
+      <c r="H136" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="I136" s="1" t="n">
         <v>300</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>3</v>
@@ -7480,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,19 +7471,19 @@
         <v>350</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C137" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D137" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="E137" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="E137" s="0" t="s">
-        <v>366</v>
-      </c>
       <c r="F137" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M137" s="2" t="str">
         <f aca="false">IF(K137*L137&gt;0,K137*L137,"")</f>
@@ -7510,7 +7493,7 @@
         <v>50</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7518,31 +7501,31 @@
         <v>351</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C138" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>365</v>
-      </c>
       <c r="E138" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G138" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="F138" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G138" s="0" t="s">
-        <v>369</v>
-      </c>
       <c r="H138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>4</v>
@@ -7555,7 +7538,7 @@
         <v>40</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7563,16 +7546,16 @@
         <v>352</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C139" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D139" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D139" s="0" t="s">
-        <v>365</v>
-      </c>
       <c r="E139" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M139" s="2" t="str">
         <f aca="false">IF(K139*L139&gt;0,K139*L139,"")</f>
@@ -7582,7 +7565,7 @@
         <v>20</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,16 +7573,16 @@
         <v>353</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C140" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D140" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="D140" s="0" t="s">
-        <v>365</v>
-      </c>
       <c r="E140" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M140" s="2" t="str">
         <f aca="false">IF(K140*L140&gt;0,K140*L140,"")</f>
@@ -7609,7 +7592,7 @@
         <v>40</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7617,16 +7600,16 @@
         <v>360</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D141" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="E141" s="0" t="s">
         <v>373</v>
-      </c>
-      <c r="E141" s="0" t="s">
-        <v>374</v>
       </c>
       <c r="M141" s="2" t="str">
         <f aca="false">IF(K141*L141&gt;0,K141*L141,"")</f>
@@ -7636,7 +7619,7 @@
         <v>5</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,16 +7627,16 @@
         <v>361</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M142" s="2" t="str">
         <f aca="false">IF(K142*L142&gt;0,K142*L142,"")</f>
@@ -7663,7 +7646,7 @@
         <v>10</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,16 +7654,16 @@
         <v>362</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D143" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E143" s="0" t="s">
         <v>376</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>377</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>1</v>
@@ -7696,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7704,22 +7687,22 @@
         <v>410</v>
       </c>
       <c r="B144" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C144" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="0" t="s">
+      <c r="E144" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E144" s="0" t="s">
-        <v>380</v>
-      </c>
       <c r="I144" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>10</v>
@@ -7738,25 +7721,25 @@
         <v>411</v>
       </c>
       <c r="B145" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C145" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>379</v>
-      </c>
       <c r="E145" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="F145" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="F145" s="0" t="s">
+      <c r="G145" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="G145" s="0" t="s">
+      <c r="J145" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>125</v>
@@ -7776,25 +7759,25 @@
         <v>412</v>
       </c>
       <c r="B146" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C146" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>379</v>
-      </c>
       <c r="E146" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G146" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>275</v>
@@ -7814,28 +7797,28 @@
         <v>420</v>
       </c>
       <c r="B147" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>379</v>
-      </c>
       <c r="E147" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F147" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="F147" s="0" t="s">
+      <c r="H147" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="I147" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="J147" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>340</v>
@@ -7849,7 +7832,7 @@
         <v>5200</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7857,25 +7840,25 @@
         <v>430</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="E148" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E148" s="0" t="s">
+      <c r="F148" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="H148" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="H148" s="0" t="s">
-        <v>395</v>
-      </c>
       <c r="J148" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>3</v>
@@ -7894,31 +7877,31 @@
         <v>431</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="E149" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E149" s="0" t="s">
+      <c r="F149" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="G149" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="G149" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>1</v>
@@ -7936,315 +7919,466 @@
       <c r="M150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M151" s="2"/>
-      <c r="P151" s="4" t="s">
+      <c r="E151" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G151" s="2"/>
+      <c r="I151" s="5"/>
+      <c r="K151" s="6" t="s">
         <v>400</v>
       </c>
+      <c r="M151" s="0"/>
+      <c r="N151" s="0"/>
+      <c r="O151" s="0"/>
+      <c r="P151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="G152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="H152" s="0"/>
-      <c r="I152" s="2"/>
+      <c r="J152" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="M152" s="0"/>
-      <c r="O152" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P152" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="N152" s="0"/>
+      <c r="O152" s="0"/>
+      <c r="P152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="K153" s="1"/>
+      <c r="E153" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <f aca="false">SUMIFS(M:M,F:F,"MgO")</f>
+        <v>1792.5</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <f aca="false">SUMIFS(N:N,F:F,"MgO")</f>
+        <v>15</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <f aca="false">G153+H153</f>
+        <v>1807.5</v>
+      </c>
+      <c r="J153" s="1" t="n">
+        <f aca="false">I153*1.2</f>
+        <v>2169</v>
+      </c>
+      <c r="K153" s="1" t="n">
+        <f aca="false">J153</f>
+        <v>2169</v>
+      </c>
+      <c r="M153" s="0"/>
       <c r="N153" s="0"/>
-      <c r="O153" s="0" t="n">
-        <f aca="false">SUMIFS(M:M,F:F,"MgO")*1.2</f>
-        <v>2151</v>
-      </c>
-      <c r="P153" s="1" t="n">
-        <f aca="false">O153</f>
-        <v>2151</v>
-      </c>
+      <c r="O153" s="0"/>
+      <c r="P153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="K154" s="1"/>
-      <c r="O154" s="1" t="n">
-        <f aca="false">SUMIFS(M:M,E:E,"finish")*1.2</f>
-        <v>435.6</v>
-      </c>
-      <c r="P154" s="1" t="n">
-        <f aca="false">O154+P153</f>
-        <v>2586.6</v>
-      </c>
+      <c r="E154" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="1" t="n">
+        <f aca="false">SUMIFS(M:M,E:E,"finish")</f>
+        <v>363</v>
+      </c>
+      <c r="H154" s="1" t="n">
+        <f aca="false">SUMIFS(N:N,E:E,"finish")</f>
+        <v>20</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <f aca="false">G154+H154</f>
+        <v>383</v>
+      </c>
+      <c r="J154" s="1" t="n">
+        <f aca="false">I154*1.2</f>
+        <v>459.6</v>
+      </c>
+      <c r="K154" s="1" t="n">
+        <f aca="false">J154+K153</f>
+        <v>2628.6</v>
+      </c>
+      <c r="M154" s="0" t="n">
+        <f aca="false">SUMIFS(P:P,H:H,"finish")*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="N154" s="0"/>
+      <c r="O154" s="0"/>
+      <c r="P154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="K155" s="1"/>
-      <c r="O155" s="1" t="n">
-        <f aca="false">SUMIFS(M:M,F:F,"zinc")*1.2</f>
-        <v>160.849608</v>
-      </c>
-      <c r="P155" s="1" t="n">
-        <f aca="false">O155+P154</f>
-        <v>2747.449608</v>
-      </c>
+      <c r="E155" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="G155" s="1" t="n">
+        <f aca="false">SUMIFS(M:M,F:F,"zinc")</f>
+        <v>134.04134</v>
+      </c>
+      <c r="H155" s="1" t="n">
+        <f aca="false">SUMIFS(N:N,F:F,"zinc")</f>
+        <v>28</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <f aca="false">G155+H155</f>
+        <v>162.04134</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <f aca="false">I155*1.2</f>
+        <v>194.449608</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <f aca="false">J155+K154</f>
+        <v>2823.049608</v>
+      </c>
+      <c r="M155" s="0" t="n">
+        <f aca="false">SUMIFS(P:P,I:I,"zinc")*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="N155" s="0"/>
+      <c r="O155" s="0"/>
+      <c r="P155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="K156" s="1"/>
-      <c r="O156" s="1" t="n">
-        <f aca="false">SUMIFS(M:M,F:F,"cellulose")*1.2</f>
+      <c r="E156" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G156" s="1" t="n">
+        <f aca="false">SUMIFS(M:M,F:F,"cellulose")</f>
+        <v>234.812</v>
+      </c>
+      <c r="H156" s="1" t="n">
+        <f aca="false">SUMIFS(N:N,F:F,"cellulose")</f>
+        <v>0</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <f aca="false">G156+H156</f>
+        <v>234.812</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <f aca="false">I156*1.2</f>
         <v>281.7744</v>
       </c>
-      <c r="P156" s="1" t="n">
-        <f aca="false">O156+P155</f>
-        <v>3029.224008</v>
-      </c>
+      <c r="K156" s="1" t="n">
+        <f aca="false">J156+K155</f>
+        <v>3104.824008</v>
+      </c>
+      <c r="M156" s="0" t="n">
+        <f aca="false">SUMIFS(P:P,I:I,"cellulose")*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="N156" s="0"/>
+      <c r="O156" s="0"/>
+      <c r="P156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="K157" s="1"/>
-      <c r="O157" s="1" t="n">
-        <f aca="false">SUMIFS(M:M,F:F,"3/16 glass")*1.2</f>
-        <v>468</v>
-      </c>
-      <c r="P157" s="8" t="n">
-        <f aca="false">O157+P156</f>
-        <v>3497.224008</v>
-      </c>
+      <c r="E157" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="G157" s="1" t="n">
+        <f aca="false">SUMIFS(M:M,F:F,"3/16 glass")</f>
+        <v>390</v>
+      </c>
+      <c r="H157" s="1" t="n">
+        <f aca="false">SUMIFS(N:N,F:F,"3/16 glass")</f>
+        <v>0</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <f aca="false">G157+H157</f>
+        <v>390</v>
+      </c>
+      <c r="J157" s="1" t="e">
+        <f aca="false">I157*1.2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K157" s="9" t="e">
+        <f aca="false">J157+K156</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M157" s="0" t="n">
+        <f aca="false">SUMIFS(P:P,I:I,"3/16 glass")*1.2</f>
+        <v>0</v>
+      </c>
+      <c r="N157" s="0"/>
+      <c r="O157" s="0"/>
+      <c r="P157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G158" s="1"/>
+      <c r="M158" s="0"/>
+      <c r="N158" s="0"/>
+      <c r="O158" s="0"/>
       <c r="P158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G159" s="1"/>
+      <c r="K159" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="L159" s="1"/>
       <c r="P159" s="0"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="3"/>
-      <c r="F160" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="H160" s="0"/>
-      <c r="I160" s="0"/>
-      <c r="J160" s="0"/>
-      <c r="M160" s="7"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="2"/>
+      <c r="C160" s="3"/>
+      <c r="E160" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="M160" s="0"/>
+      <c r="N160" s="0"/>
+      <c r="O160" s="0"/>
       <c r="P160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="H161" s="0"/>
-      <c r="I161" s="0"/>
-      <c r="J161" s="0"/>
-      <c r="M161" s="1" t="n">
+      <c r="E161" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="G161" s="1" t="n">
         <f aca="false">SUMIFS(M:M,A:A,"&lt;200")*1.2</f>
         <v>4111.973508</v>
       </c>
-      <c r="N161" s="1" t="n">
+      <c r="H161" s="1" t="n">
         <f aca="false">SUMIFS(N:N,A:A,"&lt;200")*1.2</f>
         <v>306</v>
       </c>
-      <c r="O161" s="1" t="n">
-        <f aca="false">SUM(M161:N161)</f>
+      <c r="I161" s="1" t="n">
+        <f aca="false">G161+H161</f>
         <v>4417.973508</v>
       </c>
-      <c r="P161" s="1" t="n">
-        <f aca="false">O161</f>
-        <v>4417.973508</v>
-      </c>
+      <c r="J161" s="1" t="n">
+        <f aca="false">I161*1.2</f>
+        <v>5301.5682096</v>
+      </c>
+      <c r="K161" s="1" t="n">
+        <f aca="false">J161</f>
+        <v>5301.5682096</v>
+      </c>
+      <c r="M161" s="0"/>
+      <c r="N161" s="0"/>
+      <c r="O161" s="0"/>
+      <c r="P161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="3"/>
-      <c r="F162" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="H162" s="0"/>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
-      <c r="M162" s="1" t="n">
+      <c r="C162" s="3"/>
+      <c r="E162" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G162" s="1" t="n">
         <f aca="false">SUMIFS(M:M,A:A,"&gt;199",A:A,"&lt;300")*1.2</f>
         <v>140.166</v>
       </c>
-      <c r="N162" s="1" t="n">
+      <c r="H162" s="1" t="n">
         <f aca="false">SUMIFS(N:N,A:A,"&gt;199",A:A,"&lt;300")*1.2</f>
         <v>328.8</v>
       </c>
-      <c r="O162" s="1" t="n">
-        <f aca="false">SUM(M162:N162)</f>
+      <c r="I162" s="1" t="n">
+        <f aca="false">G162+H162</f>
         <v>468.966</v>
       </c>
-      <c r="P162" s="1" t="n">
-        <f aca="false">O162+P161</f>
-        <v>4886.939508</v>
-      </c>
+      <c r="J162" s="1" t="n">
+        <f aca="false">I162*1.2</f>
+        <v>562.7592</v>
+      </c>
+      <c r="K162" s="1" t="n">
+        <f aca="false">J162+K161</f>
+        <v>5864.3274096</v>
+      </c>
+      <c r="M162" s="0"/>
+      <c r="N162" s="0"/>
+      <c r="O162" s="0"/>
+      <c r="P162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="3"/>
-      <c r="F163" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
-      <c r="M163" s="1" t="n">
+      <c r="C163" s="3"/>
+      <c r="E163" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G163" s="1" t="n">
         <f aca="false">SUMIFS(M:M,A:A,"&gt;299",A:A,"&lt;400")*1.2</f>
         <v>108</v>
       </c>
-      <c r="N163" s="1" t="n">
+      <c r="H163" s="1" t="n">
         <f aca="false">SUMIFS(N:N,A:A,"&gt;299",A:A,"&lt;400")*1.2</f>
         <v>1440</v>
       </c>
-      <c r="O163" s="1" t="n">
-        <f aca="false">SUM(M163:N163)</f>
+      <c r="I163" s="1" t="n">
+        <f aca="false">G163+H163</f>
         <v>1548</v>
       </c>
-      <c r="P163" s="1" t="n">
-        <f aca="false">O163+P162</f>
-        <v>6434.939508</v>
-      </c>
+      <c r="J163" s="1" t="n">
+        <f aca="false">I163*1.2</f>
+        <v>1857.6</v>
+      </c>
+      <c r="K163" s="1" t="n">
+        <f aca="false">J163+K162</f>
+        <v>7721.9274096</v>
+      </c>
+      <c r="M163" s="0"/>
+      <c r="N163" s="0"/>
+      <c r="O163" s="0"/>
+      <c r="P163" s="0"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="E164" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="F164" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H164" s="0"/>
-      <c r="I164" s="0"/>
-      <c r="J164" s="0"/>
-      <c r="M164" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="G164" s="1" t="n">
         <f aca="false">SUMIFS(M:M,A:A,"&gt;429",A:A,"&lt;440")</f>
         <v>630</v>
       </c>
-      <c r="O164" s="1" t="n">
-        <f aca="false">SUM(M164:N164)</f>
+      <c r="I164" s="1" t="n">
+        <f aca="false">G164+H164</f>
         <v>630</v>
       </c>
-      <c r="P164" s="9" t="n">
-        <f aca="false">O164+P163</f>
-        <v>7064.939508</v>
-      </c>
+      <c r="J164" s="1" t="n">
+        <f aca="false">I164</f>
+        <v>630</v>
+      </c>
+      <c r="K164" s="10" t="n">
+        <f aca="false">J164+K163</f>
+        <v>8351.9274096</v>
+      </c>
+      <c r="M164" s="0"/>
+      <c r="N164" s="0"/>
+      <c r="O164" s="0"/>
+      <c r="P164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F165" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="H165" s="0"/>
-      <c r="I165" s="0"/>
-      <c r="J165" s="0"/>
-      <c r="N165" s="1" t="n">
+      <c r="E165" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1" t="n">
         <f aca="false">SUMIFS(N:N,A:A,"&gt;409",A:A,"&lt;420")</f>
         <v>1800</v>
       </c>
-      <c r="O165" s="1" t="n">
-        <f aca="false">SUM(M165:N165)</f>
+      <c r="I165" s="1" t="n">
+        <f aca="false">G165+H165</f>
         <v>1800</v>
       </c>
-      <c r="P165" s="10" t="n">
-        <f aca="false">O165+P164</f>
-        <v>8864.939508</v>
-      </c>
+      <c r="J165" s="1" t="n">
+        <f aca="false">I165</f>
+        <v>1800</v>
+      </c>
+      <c r="K165" s="10" t="n">
+        <f aca="false">J165+K164</f>
+        <v>10151.9274096</v>
+      </c>
+      <c r="M165" s="0"/>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F166" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="H166" s="0"/>
-      <c r="I166" s="0"/>
-      <c r="J166" s="0"/>
-      <c r="N166" s="1" t="n">
+      <c r="E166" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1" t="n">
         <f aca="false">SUMIFS(N:N,A:A,"&gt;419",A:A,"&lt;430")</f>
         <v>5200</v>
       </c>
-      <c r="O166" s="1" t="n">
-        <f aca="false">SUM(M166:N166)</f>
+      <c r="I166" s="1" t="n">
+        <f aca="false">G166+H166</f>
         <v>5200</v>
       </c>
-      <c r="P166" s="8" t="n">
-        <f aca="false">O166+P165</f>
-        <v>14064.939508</v>
-      </c>
+      <c r="J166" s="1" t="n">
+        <f aca="false">I166</f>
+        <v>5200</v>
+      </c>
+      <c r="K166" s="9" t="n">
+        <f aca="false">J166+K165</f>
+        <v>15351.9274096</v>
+      </c>
+      <c r="M166" s="0"/>
+      <c r="N166" s="0"/>
+      <c r="O166" s="0"/>
+      <c r="P166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="0"/>
       <c r="I167" s="0"/>
       <c r="J167" s="0"/>
-      <c r="O167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B168" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E168" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="G168" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="H168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="L168" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O168" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D168" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E168" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="F168" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="G168" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K168" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="L168" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="O168" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P168" s="0" t="s">
-        <v>418</v>
-      </c>
+      <c r="Q168" s="3"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="0"/>
